--- a/src/test/resources/ScrapeData/recipes_Hypertension.xlsx
+++ b/src/test/resources/ScrapeData/recipes_Hypertension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
   <si>
     <t>ReceipeID</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Allergy_Filter</t>
+  </si>
+  <si>
+    <t>To_Add_Filter</t>
   </si>
   <si>
     <t>22337</t>
@@ -1270,8 +1276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -1926,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1960,672 +1972,678 @@
       <c r="I1" t="s" s="9">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="13">
+      <c r="A2" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="14">
+      <c r="B2" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="15">
+      <c r="C2" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="G2" t="s" s="16">
+      <c r="E2" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="H2" t="s" s="17">
+      <c r="F2" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="18">
+      <c r="G2" t="s" s="18">
         <v>16</v>
+      </c>
+      <c r="H2" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="20">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="22">
+      <c r="A3" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="23">
+      <c r="B3" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="24">
+      <c r="C3" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="24">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="25">
+      <c r="E3" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="26">
+      <c r="F3" t="s" s="26">
         <v>23</v>
       </c>
-      <c r="I3" t="s" s="27">
+      <c r="G3" t="s" s="27">
         <v>24</v>
+      </c>
+      <c r="H3" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="29">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="28">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="29">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="31">
+      <c r="A4" t="s" s="30">
         <v>27</v>
       </c>
-      <c r="E4" t="s" s="32">
+      <c r="B4" t="s" s="31">
         <v>28</v>
       </c>
-      <c r="F4" t="s" s="33">
+      <c r="C4" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="G4" t="s" s="34">
+      <c r="D4" t="s" s="33">
         <v>29</v>
       </c>
-      <c r="H4" t="s" s="35">
+      <c r="E4" t="s" s="34">
         <v>30</v>
       </c>
-      <c r="I4" t="s" s="36">
+      <c r="F4" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s" s="36">
         <v>31</v>
+      </c>
+      <c r="H4" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="38">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="37">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="38">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="39">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s" s="40">
+      <c r="A5" t="s" s="39">
         <v>34</v>
       </c>
-      <c r="E5" t="s" s="41">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s" s="42">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s" s="43">
+      <c r="B5" t="s" s="40">
         <v>35</v>
       </c>
-      <c r="H5" t="s" s="44">
+      <c r="C5" t="s" s="41">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="42">
         <v>36</v>
       </c>
-      <c r="I5" t="s" s="45">
+      <c r="E5" t="s" s="43">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="44">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="45">
         <v>37</v>
+      </c>
+      <c r="H5" t="s" s="46">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="47">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="46">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="47">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="48">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s" s="49">
+      <c r="A6" t="s" s="48">
         <v>40</v>
       </c>
-      <c r="E6" t="s" s="50">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s" s="51">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s" s="52">
+      <c r="B6" t="s" s="49">
         <v>41</v>
       </c>
-      <c r="H6" t="s" s="53">
+      <c r="C6" t="s" s="50">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="51">
         <v>42</v>
       </c>
-      <c r="I6" t="s" s="54">
+      <c r="E6" t="s" s="52">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="53">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="54">
         <v>43</v>
+      </c>
+      <c r="H6" t="s" s="55">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s" s="56">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="55">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s" s="56">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s" s="57">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s" s="58">
+      <c r="A7" t="s" s="57">
         <v>46</v>
       </c>
-      <c r="E7" t="s" s="59">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s" s="60">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="61">
+      <c r="B7" t="s" s="58">
         <v>47</v>
       </c>
-      <c r="H7" t="s" s="62">
+      <c r="C7" t="s" s="59">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s" s="60">
         <v>48</v>
       </c>
-      <c r="I7" t="s" s="63">
+      <c r="E7" t="s" s="61">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="63">
         <v>49</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="64">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s" s="65">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="66">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s" s="67">
+      <c r="A8" t="s" s="66">
         <v>52</v>
       </c>
-      <c r="E8" t="s" s="68">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s" s="69">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s" s="70">
+      <c r="B8" t="s" s="67">
         <v>53</v>
       </c>
-      <c r="H8" t="s" s="71">
+      <c r="C8" t="s" s="68">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s" s="69">
         <v>54</v>
       </c>
-      <c r="I8" t="s" s="72">
+      <c r="E8" t="s" s="70">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s" s="71">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s" s="72">
         <v>55</v>
+      </c>
+      <c r="H8" t="s" s="73">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s" s="74">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="73">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s" s="74">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="75">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s" s="76">
+      <c r="A9" t="s" s="75">
         <v>58</v>
       </c>
-      <c r="E9" t="s" s="77">
+      <c r="B9" t="s" s="76">
         <v>59</v>
       </c>
-      <c r="F9" t="s" s="78">
+      <c r="C9" t="s" s="77">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s" s="78">
         <v>60</v>
       </c>
-      <c r="G9" t="s" s="79">
+      <c r="E9" t="s" s="79">
         <v>61</v>
       </c>
-      <c r="H9" t="s" s="80">
+      <c r="F9" t="s" s="80">
         <v>62</v>
       </c>
-      <c r="I9" t="s" s="81">
+      <c r="G9" t="s" s="81">
         <v>63</v>
+      </c>
+      <c r="H9" t="s" s="82">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s" s="83">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="82">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s" s="83">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s" s="84">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s" s="85">
+      <c r="A10" t="s" s="84">
         <v>66</v>
       </c>
-      <c r="E10" t="s" s="86">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s" s="87">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s" s="88">
+      <c r="B10" t="s" s="85">
         <v>67</v>
       </c>
-      <c r="H10" t="s" s="89">
+      <c r="C10" t="s" s="86">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s" s="87">
         <v>68</v>
       </c>
-      <c r="I10" t="s" s="90">
+      <c r="E10" t="s" s="88">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="89">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="90">
         <v>69</v>
+      </c>
+      <c r="H10" t="s" s="91">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s" s="92">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="91">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s" s="92">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s" s="93">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s" s="94">
+      <c r="A11" t="s" s="93">
         <v>72</v>
       </c>
-      <c r="E11" t="s" s="95">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s" s="96">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s" s="97">
+      <c r="B11" t="s" s="94">
         <v>73</v>
       </c>
-      <c r="H11" t="s" s="98">
+      <c r="C11" t="s" s="95">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s" s="96">
         <v>74</v>
       </c>
-      <c r="I11" t="s" s="99">
+      <c r="E11" t="s" s="97">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="98">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s" s="99">
         <v>75</v>
+      </c>
+      <c r="H11" t="s" s="100">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="101">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="100">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s" s="101">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s" s="102">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s" s="103">
+      <c r="A12" t="s" s="102">
         <v>78</v>
       </c>
-      <c r="E12" t="s" s="104">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s" s="105">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s" s="106">
+      <c r="B12" t="s" s="103">
         <v>79</v>
       </c>
-      <c r="H12" t="s" s="107">
+      <c r="C12" t="s" s="104">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s" s="105">
         <v>80</v>
       </c>
-      <c r="I12" t="s" s="108">
+      <c r="E12" t="s" s="106">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s" s="107">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s" s="108">
         <v>81</v>
+      </c>
+      <c r="H12" t="s" s="109">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s" s="110">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="109">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s" s="110">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s" s="111">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s" s="112">
+      <c r="A13" t="s" s="111">
         <v>84</v>
       </c>
-      <c r="E13" t="s" s="113">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s" s="114">
+      <c r="B13" t="s" s="112">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="115">
+      <c r="C13" t="s" s="113">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s" s="114">
         <v>86</v>
       </c>
-      <c r="H13" t="s" s="116">
+      <c r="E13" t="s" s="115">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="116">
         <v>87</v>
       </c>
-      <c r="I13" t="s" s="117">
+      <c r="G13" t="s" s="117">
         <v>88</v>
+      </c>
+      <c r="H13" t="s" s="118">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s" s="119">
+        <v>90</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="118">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s" s="119">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s" s="120">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s" s="121">
+      <c r="A14" t="s" s="120">
         <v>91</v>
       </c>
-      <c r="E14" t="s" s="122">
+      <c r="B14" t="s" s="121">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="123">
-        <v>85</v>
-      </c>
-      <c r="G14" t="s" s="124">
+      <c r="C14" t="s" s="122">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s" s="123">
         <v>93</v>
       </c>
-      <c r="H14" t="s" s="125">
+      <c r="E14" t="s" s="124">
         <v>94</v>
       </c>
-      <c r="I14" t="s" s="126">
+      <c r="F14" t="s" s="125">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s" s="126">
         <v>95</v>
+      </c>
+      <c r="H14" t="s" s="127">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s" s="128">
+        <v>97</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="127">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s" s="128">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s" s="129">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s" s="130">
+      <c r="A15" t="s" s="129">
         <v>98</v>
       </c>
-      <c r="E15" t="s" s="131">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s" s="132">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s" s="133">
+      <c r="B15" t="s" s="130">
         <v>99</v>
       </c>
-      <c r="H15" t="s" s="134">
+      <c r="C15" t="s" s="131">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s" s="132">
         <v>100</v>
       </c>
-      <c r="I15" t="s" s="135">
+      <c r="E15" t="s" s="133">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="134">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="135">
         <v>101</v>
+      </c>
+      <c r="H15" t="s" s="136">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s" s="137">
+        <v>103</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="136">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s" s="137">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s" s="138">
-        <v>103</v>
-      </c>
-      <c r="D16" t="s" s="139">
+      <c r="A16" t="s" s="138">
         <v>104</v>
       </c>
-      <c r="E16" t="s" s="140">
+      <c r="B16" t="s" s="139">
         <v>105</v>
       </c>
-      <c r="F16" t="s" s="141">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s" s="142">
+      <c r="C16" t="s" s="140">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s" s="141">
         <v>106</v>
       </c>
-      <c r="H16" t="s" s="143">
+      <c r="E16" t="s" s="142">
         <v>107</v>
       </c>
-      <c r="I16" t="s" s="144">
+      <c r="F16" t="s" s="143">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="144">
         <v>108</v>
+      </c>
+      <c r="H16" t="s" s="145">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s" s="146">
+        <v>110</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="145">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s" s="146">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s" s="147">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s" s="148">
+      <c r="A17" t="s" s="147">
         <v>111</v>
       </c>
-      <c r="E17" t="s" s="149">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s" s="150">
+      <c r="B17" t="s" s="148">
         <v>112</v>
       </c>
-      <c r="G17" t="s" s="151">
+      <c r="C17" t="s" s="149">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s" s="150">
         <v>113</v>
       </c>
-      <c r="H17" t="s" s="152">
+      <c r="E17" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="152">
         <v>114</v>
       </c>
-      <c r="I17" t="s" s="153">
+      <c r="G17" t="s" s="153">
         <v>115</v>
+      </c>
+      <c r="H17" t="s" s="154">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s" s="155">
+        <v>117</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="154">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s" s="155">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s" s="156">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s" s="157">
+      <c r="A18" t="s" s="156">
         <v>118</v>
       </c>
-      <c r="E18" t="s" s="158">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s" s="159">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s" s="160">
+      <c r="B18" t="s" s="157">
         <v>119</v>
       </c>
-      <c r="H18" t="s" s="161">
+      <c r="C18" t="s" s="158">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s" s="159">
         <v>120</v>
       </c>
-      <c r="I18" t="s" s="162">
+      <c r="E18" t="s" s="160">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="161">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s" s="162">
         <v>121</v>
+      </c>
+      <c r="H18" t="s" s="163">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s" s="164">
+        <v>123</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="163">
-        <v>122</v>
-      </c>
-      <c r="B19" t="s" s="164">
-        <v>123</v>
-      </c>
-      <c r="C19" t="s" s="165">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s" s="166">
+      <c r="A19" t="s" s="165">
         <v>124</v>
       </c>
-      <c r="E19" t="s" s="167">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s" s="168">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s" s="169">
+      <c r="B19" t="s" s="166">
         <v>125</v>
       </c>
-      <c r="H19" t="s" s="170">
+      <c r="C19" t="s" s="167">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s" s="168">
         <v>126</v>
       </c>
-      <c r="I19" t="s" s="171">
+      <c r="E19" t="s" s="169">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s" s="170">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s" s="171">
         <v>127</v>
+      </c>
+      <c r="H19" t="s" s="172">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s" s="173">
+        <v>129</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="172">
-        <v>128</v>
-      </c>
-      <c r="B20" t="s" s="173">
-        <v>129</v>
-      </c>
-      <c r="C20" t="s" s="174">
-        <v>129</v>
-      </c>
-      <c r="D20" t="s" s="175">
+      <c r="A20" t="s" s="174">
         <v>130</v>
       </c>
-      <c r="E20" t="s" s="176">
+      <c r="B20" t="s" s="175">
         <v>131</v>
       </c>
-      <c r="F20" t="s" s="177">
-        <v>85</v>
-      </c>
-      <c r="G20" t="s" s="178">
+      <c r="C20" t="s" s="176">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s" s="177">
         <v>132</v>
       </c>
-      <c r="H20" t="s" s="179">
+      <c r="E20" t="s" s="178">
         <v>133</v>
       </c>
-      <c r="I20" t="s" s="180">
+      <c r="F20" t="s" s="179">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="180">
         <v>134</v>
+      </c>
+      <c r="H20" t="s" s="181">
+        <v>135</v>
+      </c>
+      <c r="I20" t="s" s="182">
+        <v>136</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="181">
-        <v>135</v>
-      </c>
-      <c r="B21" t="s" s="182">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s" s="183">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s" s="184">
+      <c r="A21" t="s" s="183">
         <v>137</v>
       </c>
-      <c r="E21" t="s" s="185">
+      <c r="B21" t="s" s="184">
         <v>138</v>
       </c>
-      <c r="F21" t="s" s="186">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s" s="187">
+      <c r="C21" t="s" s="185">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s" s="186">
         <v>139</v>
       </c>
-      <c r="H21" t="s" s="188">
+      <c r="E21" t="s" s="187">
         <v>140</v>
       </c>
-      <c r="I21" t="s" s="189">
+      <c r="F21" t="s" s="188">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="189">
         <v>141</v>
+      </c>
+      <c r="H21" t="s" s="190">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s" s="191">
+        <v>143</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="190">
-        <v>142</v>
-      </c>
-      <c r="B22" t="s" s="191">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s" s="192">
-        <v>143</v>
-      </c>
-      <c r="D22" t="s" s="193">
+      <c r="A22" t="s" s="192">
         <v>144</v>
       </c>
-      <c r="E22" t="s" s="194">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s" s="195">
+      <c r="B22" t="s" s="193">
         <v>145</v>
       </c>
-      <c r="G22" t="s" s="196">
+      <c r="C22" t="s" s="194">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s" s="195">
         <v>146</v>
       </c>
-      <c r="H22" t="s" s="197">
+      <c r="E22" t="s" s="196">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="197">
         <v>147</v>
       </c>
-      <c r="I22" t="s" s="198">
+      <c r="G22" t="s" s="198">
         <v>148</v>
+      </c>
+      <c r="H22" t="s" s="199">
+        <v>149</v>
+      </c>
+      <c r="I22" t="s" s="200">
+        <v>150</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="199">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s" s="200">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s" s="201">
-        <v>150</v>
-      </c>
-      <c r="D23" t="s" s="202">
+      <c r="A23" t="s" s="201">
         <v>151</v>
       </c>
-      <c r="E23" t="s" s="203">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s" s="204">
-        <v>85</v>
-      </c>
-      <c r="G23" t="s" s="205">
+      <c r="B23" t="s" s="202">
         <v>152</v>
       </c>
-      <c r="H23" t="s" s="206">
+      <c r="C23" t="s" s="203">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s" s="204">
         <v>153</v>
       </c>
-      <c r="I23" t="s" s="207">
+      <c r="E23" t="s" s="205">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s" s="206">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s" s="207">
         <v>154</v>
+      </c>
+      <c r="H23" t="s" s="208">
+        <v>155</v>
+      </c>
+      <c r="I23" t="s" s="209">
+        <v>156</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="208">
-        <v>155</v>
-      </c>
-      <c r="B24" t="s" s="209">
-        <v>156</v>
-      </c>
-      <c r="C24" t="s" s="210">
-        <v>156</v>
-      </c>
-      <c r="D24" t="s" s="211">
+      <c r="A24" t="s" s="210">
         <v>157</v>
       </c>
-      <c r="E24" t="s" s="212">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s" s="213">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s" s="214">
+      <c r="B24" t="s" s="211">
         <v>158</v>
       </c>
-      <c r="H24" t="s" s="215">
+      <c r="C24" t="s" s="212">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s" s="213">
         <v>159</v>
       </c>
-      <c r="I24" t="s" s="216">
+      <c r="E24" t="s" s="214">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s" s="215">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s" s="216">
         <v>160</v>
+      </c>
+      <c r="H24" t="s" s="217">
+        <v>161</v>
+      </c>
+      <c r="I24" t="s" s="218">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ScrapeData/recipes_Hypertension.xlsx
+++ b/src/test/resources/ScrapeData/recipes_Hypertension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="176">
   <si>
     <t>ReceipeID</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>33367</t>
+  </si>
+  <si>
+    <t>Hara Bhara Subz Pulao in Pressure Cooker</t>
   </si>
   <si>
     <t>hara bhara subz pulao recipe | hara bhara pulav in pressure cooker | Indian veg hara pulao | green vegetable pulao |</t>
@@ -512,6 +515,9 @@
     <t>33365</t>
   </si>
   <si>
+    <t>Aloo Gobi ka Pulao in Pressure Cooker, Cauliflower Pulao</t>
+  </si>
+  <si>
     <t>aloo gobi ka pulao recipe | cauliflower pulao | Indian gobi pulao in pressure cooker | cauliflower rice pulao |</t>
   </si>
   <si>
@@ -560,6 +566,9 @@
   </si>
   <si>
     <t>33353</t>
+  </si>
+  <si>
+    <t>Aloo Mutter, Aloo Matar Pressure Cooker</t>
   </si>
   <si>
     <t>aloo mutter curry recipe | aloo matar using a pressure cooker | Punjabi aloo matar |</t>
@@ -661,6 +670,9 @@
     <t>33374</t>
   </si>
   <si>
+    <t>Lapsi, Pressure- Cooked Broken Wheat Dessert Recipe</t>
+  </si>
+  <si>
     <t>fada lapsi in pressure cooker recipe | pressure cooker lapsi | how to cook lapsi in pressure cooker | Gujarati fada lapsi in pressure cooker |</t>
   </si>
   <si>
@@ -796,6 +808,9 @@
   </si>
   <si>
     <t>41264</t>
+  </si>
+  <si>
+    <t>Eggless Vanilla Sponge Cake ( Pressure Cooker)</t>
   </si>
   <si>
     <t>eggless vanilla sponge cake made in pressure cooker | Indian style eggless vanilla sponge cake using condensed milk</t>
@@ -848,6 +863,9 @@
   </si>
   <si>
     <t>42237</t>
+  </si>
+  <si>
+    <t>How To Make Basmati Rice in A Pressure Cooker, Indian Style</t>
   </si>
   <si>
     <t>basmati rice in a pressure cooker recipe | how to cook basmati rice in a pressure cooker | Indian style basmati rice recipe |</t>
@@ -943,6 +961,9 @@
   </si>
   <si>
     <t>35076</t>
+  </si>
+  <si>
+    <t>Green Thepla, High Fibre Palak Paratha</t>
   </si>
   <si>
     <t>green thepla recipe | palak thepla | 4 flour healthy Indian spinach paratha | high fibre breakfast |</t>
@@ -1012,6 +1033,9 @@
     <t>33377</t>
   </si>
   <si>
+    <t>Eggless Chocolate Cake in Pressure Cooker, Pressure Cooker Cake</t>
+  </si>
+  <si>
     <t>eggless chocolate cake in pressure cooker recipe | eggless chocolate pressure cooker cake | pressure cooker cake | eggless chocolate cake without oven</t>
   </si>
   <si>
@@ -1063,6 +1087,9 @@
     <t>33376</t>
   </si>
   <si>
+    <t>Pressure Cooker Chocolate Pudding, Steamed Cooker Eggless Pudding</t>
+  </si>
+  <si>
     <t>pressure cooker chocolate pudding recipe | instant eggless chocolate pudding | Indian style rich chocolate pudding | steamed cooker chocolate pudding |</t>
   </si>
   <si>
@@ -1110,6 +1137,9 @@
   </si>
   <si>
     <t>39929</t>
+  </si>
+  <si>
+    <t>Brown Rice ( Pressure Cooker Method)</t>
   </si>
   <si>
     <t>how to cook brown rice in pressure cooker | how to cook brown rice Indian style | cooker brown rice |</t>
@@ -1240,6 +1270,15 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/chick-pea-soup--pressure-cooker--37704r</t>
+  </si>
+  <si>
+    <t>12020</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/RecipeSearch.aspx?rec=1&amp;term=High%20Blood%20Pressure</t>
+  </si>
+  <si>
+    <t>data:,</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1315,305 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -1938,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2074,10 +2410,10 @@
         <v>35</v>
       </c>
       <c r="C5" t="s" s="41">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="43">
         <v>30</v>
@@ -2086,27 +2422,27 @@
         <v>15</v>
       </c>
       <c r="G5" t="s" s="45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="47">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="49">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s" s="50">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s" s="51">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="52">
         <v>30</v>
@@ -2115,27 +2451,27 @@
         <v>15</v>
       </c>
       <c r="G6" t="s" s="54">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="55">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="56">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="59">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="61">
         <v>30</v>
@@ -2144,27 +2480,27 @@
         <v>15</v>
       </c>
       <c r="G7" t="s" s="63">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="66">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="67">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="68">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s" s="69">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s" s="70">
         <v>22</v>
@@ -2173,56 +2509,56 @@
         <v>30</v>
       </c>
       <c r="G8" t="s" s="72">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s" s="73">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s" s="74">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="75">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="76">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s" s="77">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s" s="78">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s" s="79">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s" s="80">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s" s="81">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s" s="82">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s" s="83">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="84">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s" s="85">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="86">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="87">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s" s="88">
         <v>23</v>
@@ -2231,27 +2567,27 @@
         <v>15</v>
       </c>
       <c r="G10" t="s" s="90">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="91">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="92">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="93">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s" s="94">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="95">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s" s="96">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s" s="97">
         <v>23</v>
@@ -2260,27 +2596,27 @@
         <v>30</v>
       </c>
       <c r="G11" t="s" s="99">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="100">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="101">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="102">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s" s="103">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s" s="104">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s" s="105">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s" s="106">
         <v>23</v>
@@ -2289,85 +2625,85 @@
         <v>30</v>
       </c>
       <c r="G12" t="s" s="108">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="109">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s" s="110">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="111">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s" s="112">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s" s="113">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s" s="114">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s" s="115">
         <v>23</v>
       </c>
       <c r="F13" t="s" s="116">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="117">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="118">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s" s="119">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="120">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s" s="121">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s" s="122">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s" s="123">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s" s="124">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s" s="125">
         <v>91</v>
       </c>
-      <c r="B14" t="s" s="121">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s" s="122">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s" s="123">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s" s="124">
-        <v>94</v>
-      </c>
-      <c r="F14" t="s" s="125">
-        <v>87</v>
-      </c>
       <c r="G14" t="s" s="126">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s" s="127">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s" s="128">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="129">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s" s="130">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s" s="131">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s" s="132">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s" s="133">
         <v>23</v>
@@ -2376,85 +2712,85 @@
         <v>15</v>
       </c>
       <c r="G15" t="s" s="135">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s" s="136">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s" s="137">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="138">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s" s="139">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s" s="140">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s" s="141">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s" s="142">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s" s="143">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="144">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s" s="145">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s" s="146">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="147">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s" s="148">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s" s="149">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s" s="150">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s" s="151">
         <v>15</v>
       </c>
       <c r="F17" t="s" s="152">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s" s="153">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s" s="154">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s" s="155">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="156">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s" s="157">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s" s="158">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s" s="159">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s" s="160">
         <v>14</v>
@@ -2463,27 +2799,27 @@
         <v>23</v>
       </c>
       <c r="G18" t="s" s="162">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s" s="163">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s" s="164">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="165">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s" s="166">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s" s="167">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s" s="168">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s" s="169">
         <v>23</v>
@@ -2492,143 +2828,143 @@
         <v>30</v>
       </c>
       <c r="G19" t="s" s="171">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s" s="172">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s" s="173">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="174">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s" s="175">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s" s="176">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s" s="177">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s" s="178">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s" s="179">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="180">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s" s="181">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s" s="182">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="183">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="184">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s" s="185">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s" s="186">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s" s="187">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s" s="188">
         <v>15</v>
       </c>
       <c r="G21" t="s" s="189">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s" s="190">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I21" t="s" s="191">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="192">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="193">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s" s="194">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s" s="195">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s" s="196">
         <v>23</v>
       </c>
       <c r="F22" t="s" s="197">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s" s="198">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s" s="199">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s" s="200">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="201">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="202">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s" s="203">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="204">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s" s="205">
         <v>15</v>
       </c>
       <c r="F23" t="s" s="206">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="207">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s" s="208">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="I23" t="s" s="209">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="210">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="211">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s" s="212">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s" s="213">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s" s="214">
         <v>23</v>
@@ -2637,13 +2973,332 @@
         <v>30</v>
       </c>
       <c r="G24" t="s" s="216">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s" s="217">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="I24" t="s" s="218">
-        <v>162</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s" s="220">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s" s="221">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s" s="222">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s" s="223">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s" s="224">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s" s="225">
+        <v>170</v>
+      </c>
+      <c r="H25" t="s" s="226">
+        <v>171</v>
+      </c>
+      <c r="I25" t="s" s="227">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="228">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s" s="229">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s" s="230">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s" s="231">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s" s="232">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s" s="233">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s" s="234">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s" s="235">
+        <v>171</v>
+      </c>
+      <c r="I26" t="s" s="236">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="237">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s" s="238">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s" s="239">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s" s="240">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s" s="241">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="242">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s" s="243">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s" s="244">
+        <v>171</v>
+      </c>
+      <c r="I27" t="s" s="245">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="246">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s" s="247">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s" s="248">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s" s="249">
+        <v>169</v>
+      </c>
+      <c r="E28" t="s" s="250">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s" s="251">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s" s="252">
+        <v>170</v>
+      </c>
+      <c r="H28" t="s" s="253">
+        <v>171</v>
+      </c>
+      <c r="I28" t="s" s="254">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="255">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s" s="256">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s" s="257">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s" s="258">
+        <v>169</v>
+      </c>
+      <c r="E29" t="s" s="259">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="260">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s" s="261">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s" s="262">
+        <v>171</v>
+      </c>
+      <c r="I29" t="s" s="263">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="264">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="265">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s" s="266">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s" s="267">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s" s="268">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s" s="269">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s" s="270">
+        <v>170</v>
+      </c>
+      <c r="H30" t="s" s="271">
+        <v>171</v>
+      </c>
+      <c r="I30" t="s" s="272">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="273">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s" s="274">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s" s="275">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s" s="276">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s" s="277">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s" s="278">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s" s="279">
+        <v>170</v>
+      </c>
+      <c r="H31" t="s" s="280">
+        <v>171</v>
+      </c>
+      <c r="I31" t="s" s="281">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="282">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s" s="283">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s" s="284">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s" s="285">
+        <v>169</v>
+      </c>
+      <c r="E32" t="s" s="286">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s" s="287">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s" s="288">
+        <v>170</v>
+      </c>
+      <c r="H32" t="s" s="289">
+        <v>171</v>
+      </c>
+      <c r="I32" t="s" s="290">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="291">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s" s="292">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s" s="293">
+        <v>168</v>
+      </c>
+      <c r="D33" t="s" s="294">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s" s="295">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s" s="296">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s" s="297">
+        <v>170</v>
+      </c>
+      <c r="H33" t="s" s="298">
+        <v>171</v>
+      </c>
+      <c r="I33" t="s" s="299">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="300">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s" s="301">
+        <v>168</v>
+      </c>
+      <c r="C34" t="s" s="302">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s" s="303">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s" s="304">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s" s="305">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s" s="306">
+        <v>170</v>
+      </c>
+      <c r="H34" t="s" s="307">
+        <v>171</v>
+      </c>
+      <c r="I34" t="s" s="308">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="309">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s" s="310">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s" s="311">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s" s="312">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s" s="313">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s" s="314">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s" s="315">
+        <v>170</v>
+      </c>
+      <c r="H35" t="s" s="316">
+        <v>171</v>
+      </c>
+      <c r="I35" t="s" s="317">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
